--- a/jada_react/apply/train_data.xlsx
+++ b/jada_react/apply/train_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\챗봇\적용\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\react_socket\적용\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -33,343 +33,431 @@
     <t>답변 이미지</t>
   </si>
   <si>
-    <t>없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>소개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>노그는 자다가도생각이나조의 프로그램으로 사용자의 전력사용패턴을 분석하여 예측 전기사용량을 알려주고 냉난방시스템을 제어하며 전력차단을 통해 에너지절약을 도와드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 누구야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노그에 대해서 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노그는 무엇을 할 수 있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노그에 대해 설명해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노그는 무슨일을 해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조가 뭐야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조는 김태윤,김희성,박서희,임소원,임철홍,조수현으로 이루어진 최고로 멋진 녀석들입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도 생각이나조가 뭐야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조는 무슨 일을 했어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도 생각이나조의 성과에 대해 말해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조의 성과에 대해 말해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조의 성과에는 무엇이 있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도 생각이나조의 성과에 대해 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조에 대해 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 제어하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 제어하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품 제어하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품 제어하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 제어하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 제어하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 제어하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 제어하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 온도 조절하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 온도 조절하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 제어하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 전력 차단하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 제어하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적정온도에 대해 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적정온도는 26도 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 관리하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 관리하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 관리하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 관리하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 관리하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 관리하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품 관리하는 방법 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품 관리하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용패턴 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용패턴 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 전력사용패턴 분석 보여줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용량 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용량 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 전력사용량 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용량 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요금 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요금 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 전기요금 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요금 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 전기 사용량 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 전기 사용량 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 예측 전기 사용량 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 전기 사용량 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기료를 절약하려면 어떻게 해야돼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요금을 절약하려면 저 노그를 사용하세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요금은 어떻게 계산되는거야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요금은 다음과 같이 산정됩니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 이름이 뭐야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 온도 조절해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 온도 조절하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 온도 조절해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보일러 온도 조절하는 방법 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 무엇을 할 수 있어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 자다가도생각이나조의 프로그램으로 사용자의 전력사용패턴을 분석하여 예측 전기사용량을 알려주고 냉난방시스템을 제어하며 전력차단을 통해 에너지절약을 도와드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조에는 누가 있어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조에는 김태윤,김희성,박서희,임소원,임철홍,조수현이 있습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 이름을 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 당신을 돕기 위해 만들어졌어요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 왜 있는 거야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 왜 있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 점심 뭐야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 점심 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 뭘 할수있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요ㅎㅎ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://gj.korchamhrd.net/FileDownload_src.jsp?server_file_path=/tisfile/sitebbs/webeditor/03000/2024/20240126123530668.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지가 뭐야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>노그가 뭐야</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>노그는 자다가도생각이나조의 프로그램으로 사용자의 전력사용패턴을 분석하여 예측 전기사용량을 알려주고 냉난방시스템을 제어하며 전력차단을 통해 에너지절약을 도와드립니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌 누구야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노그에 대해서 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노그는 무엇을 할 수 있어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노그에 대해 설명해줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노그는 무슨일을 해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조가 뭐야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조는 김태윤,김희성,박서희,임소원,임철홍,조수현으로 이루어진 최고로 멋진 녀석들입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도 생각이나조가 뭐야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조는 무슨 일을 했어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조는 저 노그 프로그램을 만들었습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도 생각이나조의 성과에 대해 말해줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조의 성과에 대해 말해줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조의 성과에는 무엇이 있어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도 생각이나조의 성과에 대해 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조에 대해 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 제어하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 제어하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자제품 제어하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자제품 제어하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 제어하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 제어하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전등 제어하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전등 제어하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 온도 조절하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 온도 조절하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 제어하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전등 전력 차단하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전등 제어하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적정온도에 대해 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적정온도는 26도 입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 관리하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 관리하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 관리하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 관리하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전등 관리하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전등 관리하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자제품 관리하는 방법 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자제품 관리하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전력사용패턴 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전력사용패턴 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 전력사용패턴 분석 보여줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전력사용량 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전력사용량 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 전력사용량 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전력사용량 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요금 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요금 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 전기요금 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요금 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측 전기 사용량 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측 전기 사용량 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 예측 전기 사용량 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측 전기 사용량 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기료를 절약하려면 어떻게 해야돼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요금을 절약하려면 저 노그를 사용하세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요금은 어떻게 계산되는거야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요금은 다음과 같이 산정됩니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너 이름이 뭐야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 노그입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 온도 조절해줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 온도 조절하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 온도 조절해줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보일러 온도 조절하는 방법 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는 무엇을 할 수 있어?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 자다가도생각이나조의 프로그램으로 사용자의 전력사용패턴을 분석하여 예측 전기사용량을 알려주고 냉난방시스템을 제어하며 전력차단을 통해 에너지절약을 도와드립니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조에는 누가 있어?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자다가도생각이나조에는 김태윤,김희성,박서희,임소원,임철홍,조수현이 있습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 이름을 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 노그입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 당신을 돕기 위해 만들어졌어요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌 왜 있는 거야?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌 왜 있어</t>
+    <t>노지에 대해서 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제가 노지입니다
+여러분을 돕는것을 좋아하고 에너지낭비를 싫어해요
+무엇이든지 물어보시면 답해드릴게요
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지는 무엇을 할 수 있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지에 대해 설명해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지는 무슨일을 해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지는 자다가도생각이나조의 프로그램으로 사용자의 전력사용패턴을 분석하여 예측 전기사용량을 알려주고 냉난방시스템을 제어하며 전력차단을 통해 에너지절약을 도와드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지는 자다가도생각이나조의 프로그램으로 사용자의 전력사용패턴을 분석하여 예측 전기사용량을 알려주고 냉난방시스템을 제어하며 전력차단을 통해 에너지절약을 도와드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조는 노그 프로그램과 저 노지를 만들었습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 노지입니다 
+성은 '에' 이름은 '노지' 에노지:)
+편하게 노지라고 불러주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주인력개발원에서는 주로 돈육고추장불고기, 돈까스, 생선까스, 오징어까스, 치킨까스가 나옵니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 저녁 뭐야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 저녁 메뉴 알려줘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,6 +540,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -788,591 +879,800 @@
     </row>
     <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="87" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/jada_react/apply/train_data.xlsx
+++ b/jada_react/apply/train_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>전기요금은 어떻게 계산되는거야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요금은 다음과 같이 산정됩니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -458,6 +454,37 @@
   </si>
   <si>
     <t>오늘 저녁 메뉴 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 어디사니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 어디있어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 항상 당신의 곁에 있어요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 당신의 곁에 살고있어요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://online.kepco.co.kr/PRM004D00</t>
+  </si>
+  <si>
+    <t>전기요금 계산법을 알려드릴게요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -882,13 +909,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -899,10 +926,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -916,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -930,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -944,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -958,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -972,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -986,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -997,10 +1024,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1011,10 +1038,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1025,10 +1052,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1039,10 +1066,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1053,10 +1080,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -1070,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1084,7 +1111,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1098,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1112,7 +1139,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1126,7 +1153,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1140,7 +1167,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1154,7 +1181,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1168,7 +1195,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1182,7 +1209,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1196,7 +1223,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1210,7 +1237,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1224,7 +1251,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1238,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1252,7 +1279,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1266,7 +1293,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,7 +1307,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1294,7 +1321,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1308,7 +1335,7 @@
         <v>53</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1322,7 +1349,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1336,7 +1363,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1350,7 +1377,7 @@
         <v>59</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1364,10 +1391,10 @@
         <v>62</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
@@ -1375,206 +1402,206 @@
         <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1582,13 +1609,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1596,13 +1623,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1610,13 +1637,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1624,13 +1651,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1638,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1652,13 +1679,13 @@
         <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1666,13 +1693,41 @@
         <v>60</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>94</v>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/jada_react/apply/train_data.xlsx
+++ b/jada_react/apply/train_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\react_socket\적용\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minchonang/Documents/Web-study/jada/jada_react/apply/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D3301-22FC-5547-AB01-8C75FE367055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18492" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="116">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -460,12 +461,35 @@
     <t>오늘 저녁 메뉴 알려줘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.notion.so/image/https%3A%2F%2Fprod-files-secure.s3.us-west-2.amazonaws.com%2Fa8f094af-6e08-4df8-9b2b-f7f4eaa9e42d%2Ff7cdc086-7672-4a43-abb2-b9d65af8459e%2FUntitled.png?table=block&amp;id=e8e6ed65-29ba-474f-8dc1-3ba04ddebe3d&amp;spaceId=a8f094af-6e08-4df8-9b2b-f7f4eaa9e42d&amp;width=2000&amp;userId=6519112b-50fc-4c6c-b9e6-174d9c3dbad1&amp;cache=v2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>희성이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>희성이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/image/https%3A%2F%2Fprod-files-secure.s3.us-west-2.amazonaws.com%2Fa8f094af-6e08-4df8-9b2b-f7f4eaa9e42d%2Ff7cdc086-7672-4a43-abb2-b9d65af8459e%2FUntitled.png?table=block&amp;id=e8e6ed65-29ba-474f-8dc1-3ba04ddebe3d&amp;spaceId=a8f094af-6e08-4df8-9b2b-f7f4eaa9e42d&amp;width=2000&amp;userId=6519112b-50fc-4c6c-b9e6-174d9c3dbad1&amp;cache=v2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +517,14 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,10 +559,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,9 +577,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,9 +602,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,9 +642,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,7 +714,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -847,23 +887,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -887,11 +927,11 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D2" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="54">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -901,11 +941,11 @@
       <c r="C3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="D3" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -915,11 +955,11 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="D4" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -929,11 +969,11 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -943,11 +983,11 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="D6" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -957,11 +997,11 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -971,11 +1011,11 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -985,11 +1025,11 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D9" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -999,11 +1039,11 @@
       <c r="C10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D10" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,11 +1053,11 @@
       <c r="C11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D11" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1027,11 +1067,11 @@
       <c r="C12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D12" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1041,11 +1081,11 @@
       <c r="C13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D13" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1055,11 +1095,11 @@
       <c r="C14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D14" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="54">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1069,11 +1109,11 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D15" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1087,7 +1127,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="18">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1115,7 +1155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1143,7 +1183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1157,7 +1197,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1171,7 +1211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1239,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="18">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1253,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1241,7 +1281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1269,7 +1309,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="18">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1283,7 +1323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="18">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1297,7 +1337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -1311,7 +1351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="18">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1325,7 +1365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="18">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1339,7 +1379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="18">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -1353,7 +1393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="36">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -1367,7 +1407,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="18">
       <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
@@ -1381,7 +1421,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="54">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -1395,7 +1435,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="18">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -1409,7 +1449,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="18">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -1423,7 +1463,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="90">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -1437,7 +1477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="36">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1451,7 +1491,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="54">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1465,7 +1505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="18">
       <c r="A44" s="2" t="s">
         <v>74</v>
       </c>
@@ -1479,7 +1519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="18">
       <c r="A45" s="2" t="s">
         <v>74</v>
       </c>
@@ -1493,7 +1533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="144">
       <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
@@ -1507,7 +1547,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="144">
       <c r="A47" s="2" t="s">
         <v>85</v>
       </c>
@@ -1521,7 +1561,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="90">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -1535,7 +1575,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="18">
       <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
@@ -1549,7 +1589,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="18">
       <c r="A50" s="2" t="s">
         <v>89</v>
       </c>
@@ -1563,7 +1603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="18">
       <c r="A51" s="2" t="s">
         <v>89</v>
       </c>
@@ -1577,7 +1617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="90">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="90">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="90">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="90">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +1673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" ht="90">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1687,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" ht="144">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -1661,7 +1701,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" ht="144">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -1675,8 +1715,25 @@
         <v>94</v>
       </c>
     </row>
+    <row r="59" spans="1:4" ht="409.6">
+      <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D59" display="https://www.notion.so/image/https%3A%2F%2Fprod-files-secure.s3.us-west-2.amazonaws.com%2Fa8f094af-6e08-4df8-9b2b-f7f4eaa9e42d%2Ff7cdc086-7672-4a43-abb2-b9d65af8459e%2FUntitled.png?table=block&amp;id=e8e6ed65-29ba-474f-8dc1-3ba04ddebe3d&amp;spaceId=a8f094af-6e08-4" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/jada_react/apply/train_data.xlsx
+++ b/jada_react/apply/train_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\jada\jada_react\apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\react_socket\적용\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
   <si>
     <t>질문(Query)</t>
   </si>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>적정온도에 대해 알려줘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적정온도는 26도 입니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -429,6 +425,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,7 +449,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구분</t>
+    <t>/homeControl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적정온도 알려드릴게요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -855,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -872,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -889,10 +895,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -906,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -920,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -934,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -948,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -962,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -976,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -987,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1001,10 +1007,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1015,10 +1021,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1029,10 +1035,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1043,10 +1049,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -1060,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1074,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1088,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1102,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1116,7 +1122,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1130,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1144,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1158,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1169,10 +1175,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1180,13 +1186,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1194,13 +1200,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1208,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1222,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1236,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1250,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>102</v>
@@ -1264,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1278,13 +1284,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1292,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1306,13 +1312,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1320,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1334,13 +1340,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1348,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1362,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -1376,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1390,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1404,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1418,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1432,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -1446,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1460,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1474,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1488,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1502,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1516,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1530,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1544,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1558,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1572,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1586,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1600,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1614,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1628,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1642,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1656,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -1670,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -1684,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>106</v>

--- a/jada_react/apply/train_data.xlsx
+++ b/jada_react/apply/train_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\react_socket\적용\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\jada\jada_react\apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>질문(Query)</t>
   </si>
@@ -429,15 +429,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>전기 사용량 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전기 사용량 알려드릴게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번년도 전기사용량 알려줘</t>
+    <t>적정온도 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_result</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -445,7 +449,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>이번달 전기사용량 알려줘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +457,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>적정온도 알려드릴게요</t>
+    <t>/analysis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +851,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D39" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -855,7 +859,7 @@
     <col min="1" max="1" width="12.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.3984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1080,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1094,7 +1098,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1108,7 +1112,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1122,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1136,7 +1140,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1150,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1164,7 +1168,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1175,10 +1179,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1192,7 +1196,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1206,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1220,7 +1224,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1234,7 +1238,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1248,7 +1252,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1262,7 +1266,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1276,7 +1280,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1290,7 +1294,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1304,7 +1308,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1318,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1332,7 +1336,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1346,7 +1350,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1360,7 +1364,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1402,7 +1406,7 @@
         <v>60</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1416,7 +1420,7 @@
         <v>62</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1696,7 +1700,7 @@
         <v>96</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -1704,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>105</v>
